--- a/documentacao/Planilhas/userStories.xlsx
+++ b/documentacao/Planilhas/userStories.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\totem-monitoring\documentacao\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laguinho zl\Documents\BandTec\2º Semestre\Projeto e Inovação\totem-monitoring\documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0657E492-2935-4364-8160-80BABBF1F340}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -32,26 +33,26 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>Eu como desenvolvedor, gostaria de um site Institucional para atigir um maior público</t>
-  </si>
-  <si>
     <t>Eu como funcionário de Infraestrutura, gostaria de um sistema que envia alertas para ter um tempo de reação mais eficiente</t>
   </si>
   <si>
     <t>Eu como gerente, devo ter um sistema de monitoramento dos totens de auto check-in para evitar incidentes</t>
   </si>
   <si>
-    <t>Eu como desenvolvedor, gostaria de disponibilizar a conta de acesso aos usuários assinantes</t>
-  </si>
-  <si>
     <t>User Stories - Totem Monitoring</t>
+  </si>
+  <si>
+    <t>Como desenvolvedor, gostaria de disponibilizar a conta de acesso aos usuários assinantes para limitar os gastos com memória no Banco de Dados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu como desenvolvedor, gostaria de um site Institucional para atigir um maior público. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,8 +67,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <shadow/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,32 +91,29 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF36FEC2"/>
+        <fgColor rgb="FFA8FEE3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEFEEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CFEE0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -125,70 +131,44 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -196,6 +176,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA8FEE3"/>
+      <color rgb="FFBEFEEA"/>
+      <color rgb="FF9CFEE0"/>
+      <color rgb="FF82FED8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -469,65 +457,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="112.140625" customWidth="1"/>
+    <col min="3" max="3" width="87" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
+      <c r="C7" s="11" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -535,5 +523,6 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>